--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7183f8b05db66d3c/Documentos/Code/Sistemas Distribuidos/Atv4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_20221C7F4DB35DFE154D34DF4D336E7641DC72E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C30CE30D-87E8-469A-AEEF-FC8AADE68A34}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_20221C7F4DB35DFE154D34DF4D336E7641DC72E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BAA53E9-3F63-49A7-855F-F90C42E75E66}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1980,16 +1980,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
